--- a/backend/hct_mis_api/apps/registration_datahub/tests/test_file/invalid_rows.xlsx
+++ b/backend/hct_mis_api/apps/registration_datahub/tests/test_file/invalid_rows.xlsx
@@ -419,7 +419,7 @@
     <t>PUBLIC</t>
   </si>
   <si>
-    <t>pl</t>
+    <t>pl-pl</t>
   </si>
   <si>
     <t>MARRIED</t>

--- a/backend/hct_mis_api/apps/registration_datahub/tests/test_file/invalid_rows.xlsx
+++ b/backend/hct_mis_api/apps/registration_datahub/tests/test_file/invalid_rows.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="263">
   <si>
     <t>household_id</t>
   </si>
@@ -41,6 +41,9 @@
     <t>water_source_h_f</t>
   </si>
   <si>
+    <t>collect_individual_data_h_c</t>
+  </si>
+  <si>
     <t>Household ID - string</t>
   </si>
   <si>
@@ -84,6 +87,9 @@
   </si>
   <si>
     <t>Buy bottled water</t>
+  </si>
+  <si>
+    <t>partial</t>
   </si>
   <si>
     <t>33.9391, 67.7101</t>
@@ -2150,7 +2156,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2161,7 +2167,8 @@
     <col min="3" max="6" width="19.3516" style="1" customWidth="1"/>
     <col min="7" max="7" width="19.5" style="1" customWidth="1"/>
     <col min="8" max="9" width="19.3516" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="14.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="23.8516" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="14.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.65" customHeight="1">
@@ -2192,34 +2199,40 @@
       <c r="I1" t="s" s="4">
         <v>8</v>
       </c>
+      <c r="J1" t="s" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" ht="46.65" customHeight="1">
       <c r="A2" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s" s="6">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s" s="6">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s" s="7">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s" s="4">
         <v>9</v>
-      </c>
-      <c r="B2" t="s" s="5">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s" s="6">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s" s="6">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>17</v>
       </c>
     </row>
     <row r="3" ht="13.65" customHeight="1">
@@ -2227,16 +2240,16 @@
         <v>34</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s" s="9">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s" s="9">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" s="10">
         <v>3</v>
@@ -2245,10 +2258,13 @@
         <v>3.5</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s" s="4">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="J3" t="s" s="4">
+        <v>25</v>
       </c>
     </row>
     <row r="4" ht="24.65" customHeight="1">
@@ -2257,16 +2273,16 @@
         <v>35</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" s="8">
         <v>4</v>
@@ -2275,10 +2291,13 @@
         <v>1.23</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I4" t="s" s="4">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="J4" t="s" s="4">
+        <v>25</v>
       </c>
     </row>
     <row r="5" ht="13.65" customHeight="1">
@@ -2287,28 +2306,31 @@
         <v>36</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I5" t="s" s="4">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="J5" t="s" s="4">
+        <v>25</v>
       </c>
     </row>
     <row r="6" ht="24.65" customHeight="1">
@@ -2317,16 +2339,16 @@
         <v>37</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F6" s="8">
         <v>1</v>
@@ -2335,10 +2357,13 @@
         <v>12.08</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I6" t="s" s="4">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="J6" t="s" s="4">
+        <v>25</v>
       </c>
     </row>
     <row r="7" ht="24.65" customHeight="1">
@@ -2347,16 +2372,16 @@
         <v>38</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="8">
         <v>3</v>
@@ -2365,10 +2390,13 @@
         <v>14.245</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I7" t="s" s="4">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="J7" t="s" s="4">
+        <v>25</v>
       </c>
     </row>
     <row r="8" ht="24.65" customHeight="1">
@@ -2377,16 +2405,16 @@
         <v>39</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F8" s="8">
         <v>1</v>
@@ -2395,10 +2423,13 @@
         <v>17.479</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s" s="4">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="J8" t="s" s="4">
+        <v>25</v>
       </c>
     </row>
     <row r="9" ht="13.65" customHeight="1">
@@ -2407,16 +2438,16 @@
         <v>40</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F9" s="8">
         <v>1</v>
@@ -2425,10 +2456,13 @@
         <v>20.713</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I9" t="s" s="4">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="J9" t="s" s="4">
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.65" customHeight="1">
@@ -2437,16 +2471,16 @@
         <v>41</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F10" s="8">
         <v>1</v>
@@ -2455,10 +2489,13 @@
         <v>23.947</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I10" t="s" s="4">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="J10" t="s" s="4">
+        <v>25</v>
       </c>
     </row>
     <row r="11" ht="13.65" customHeight="1">
@@ -2467,16 +2504,16 @@
         <v>42</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F11" s="8">
         <v>1</v>
@@ -2485,10 +2522,13 @@
         <v>27.181</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I11" t="s" s="4">
-        <v>55</v>
+        <v>57</v>
+      </c>
+      <c r="J11" t="s" s="4">
+        <v>25</v>
       </c>
     </row>
     <row r="12" ht="24.65" customHeight="1">
@@ -2497,16 +2537,16 @@
         <v>43</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F12" s="8">
         <v>1</v>
@@ -2515,10 +2555,13 @@
         <v>30.415</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I12" t="s" s="4">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="J12" t="s" s="4">
+        <v>25</v>
       </c>
     </row>
     <row r="13" ht="24.65" customHeight="1">
@@ -2527,16 +2570,16 @@
         <v>44</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F13" s="8">
         <v>1</v>
@@ -2545,10 +2588,13 @@
         <v>33.649</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I13" t="s" s="4">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="J13" t="s" s="4">
+        <v>25</v>
       </c>
     </row>
     <row r="14" ht="24.65" customHeight="1">
@@ -2557,16 +2603,16 @@
         <v>45</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E14" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F14" s="8">
         <v>1</v>
@@ -2575,10 +2621,13 @@
         <v>36.883</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I14" t="s" s="4">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="J14" t="s" s="4">
+        <v>25</v>
       </c>
     </row>
     <row r="15" ht="13.65" customHeight="1">
@@ -2587,16 +2636,16 @@
         <v>46</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E15" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F15" s="8">
         <v>1</v>
@@ -2605,10 +2654,13 @@
         <v>40.117</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I15" t="s" s="4">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="J15" t="s" s="4">
+        <v>25</v>
       </c>
     </row>
     <row r="16" ht="24.65" customHeight="1">
@@ -2617,16 +2669,16 @@
         <v>47</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E16" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F16" s="8">
         <v>1</v>
@@ -2635,10 +2687,13 @@
         <v>43.351</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I16" t="s" s="4">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="J16" t="s" s="4">
+        <v>25</v>
       </c>
     </row>
     <row r="17" ht="13.65" customHeight="1">
@@ -2647,16 +2702,16 @@
         <v>48</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D17" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E17" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F17" s="8">
         <v>1</v>
@@ -2665,10 +2720,13 @@
         <v>46.585</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I17" t="s" s="4">
-        <v>55</v>
+        <v>57</v>
+      </c>
+      <c r="J17" t="s" s="4">
+        <v>25</v>
       </c>
     </row>
     <row r="18" ht="24.65" customHeight="1">
@@ -2677,16 +2735,16 @@
         <v>49</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D18" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F18" s="8">
         <v>1</v>
@@ -2695,10 +2753,13 @@
         <v>49.819</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I18" t="s" s="4">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="J18" t="s" s="4">
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="24.65" customHeight="1">
@@ -2707,16 +2768,16 @@
         <v>50</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D19" t="s" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E19" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F19" s="8">
         <v>1</v>
@@ -2725,10 +2786,13 @@
         <v>53.053</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I19" t="s" s="4">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="J19" t="s" s="4">
+        <v>25</v>
       </c>
     </row>
     <row r="20" ht="24.65" customHeight="1">
@@ -2737,16 +2801,16 @@
         <v>51</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D20" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E20" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F20" s="8">
         <v>1</v>
@@ -2755,27 +2819,30 @@
         <v>56.287</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I20" t="s" s="4">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="J20" t="s" s="4">
+        <v>25</v>
       </c>
     </row>
     <row r="21" ht="13.65" customHeight="1">
       <c r="A21" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D21" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E21" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F21" s="8">
         <v>1</v>
@@ -2784,10 +2851,13 @@
         <v>59.521</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I21" t="s" s="4">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="J21" t="s" s="4">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2819,141 +2889,141 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="3">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C1" t="s" s="3">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D1" t="s" s="3">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E1" t="s" s="3">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F1" t="s" s="3">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G1" t="s" s="3">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H1" t="s" s="3">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I1" t="s" s="3">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J1" t="s" s="3">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K1" t="s" s="3">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L1" t="s" s="3">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M1" t="s" s="3">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="N1" t="s" s="3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O1" t="s" s="3">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P1" t="s" s="3">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q1" t="s" s="3">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="R1" t="s" s="3">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="S1" t="s" s="3">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="T1" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="U1" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="V1" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="W1" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" ht="24.65" customHeight="1">
       <c r="A2" t="s" s="12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s" s="6">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s" s="6">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D2" t="s" s="6">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E2" t="s" s="6">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F2" t="s" s="6">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G2" t="s" s="6">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H2" t="s" s="6">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I2" t="s" s="6">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J2" t="s" s="6">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K2" t="s" s="6">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L2" t="s" s="6">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M2" t="s" s="6">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="N2" t="s" s="6">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O2" t="s" s="6">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P2" t="s" s="6">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q2" t="s" s="13">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="R2" t="s" s="6">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="S2" t="s" s="6">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="T2" t="s" s="7">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" ht="24.65" customHeight="1">
@@ -2961,70 +3031,70 @@
         <v>34</v>
       </c>
       <c r="B3" t="s" s="6">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s" s="15">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D3" t="s" s="9">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E3" t="s" s="9">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F3" t="s" s="16">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G3" t="s" s="17">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H3" t="s" s="15">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I3" t="s" s="9">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J3" t="s" s="9">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K3" t="s" s="9">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L3" t="s" s="9">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M3" t="s" s="9">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N3" t="s" s="9">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O3" t="s" s="9">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P3" s="10">
         <v>40</v>
       </c>
       <c r="Q3" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="R3" t="s" s="9">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="S3" t="s" s="9">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" ht="24.65" customHeight="1">
@@ -3032,70 +3102,70 @@
         <v>34</v>
       </c>
       <c r="B4" t="s" s="15">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F4" t="s" s="5">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G4" t="s" s="17">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H4" t="s" s="7">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O4" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P4" s="8">
         <v>39</v>
       </c>
       <c r="Q4" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" ht="24.65" customHeight="1">
@@ -3103,67 +3173,67 @@
         <v>34</v>
       </c>
       <c r="B5" t="s" s="18">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F5" t="s" s="5">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G5" t="s" s="17">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H5" t="s" s="7">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O5" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="P5" s="8">
         <v>38</v>
       </c>
       <c r="Q5" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="W5" s="2"/>
     </row>
@@ -3172,67 +3242,67 @@
         <v>35</v>
       </c>
       <c r="B6" t="s" s="6">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s" s="7">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F6" t="s" s="5">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G6" t="s" s="17">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H6" t="s" s="7">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O6" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="P6" s="8">
         <v>37</v>
       </c>
       <c r="Q6" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="W6" s="2"/>
     </row>
@@ -3241,136 +3311,136 @@
         <v>35</v>
       </c>
       <c r="B7" t="s" s="15">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F7" t="s" s="5">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G7" t="s" s="17">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H7" t="s" s="7">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O7" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P7" s="8">
         <v>36</v>
       </c>
       <c r="Q7" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="W7" s="2"/>
     </row>
     <row r="8" ht="24.65" customHeight="1">
       <c r="A8" t="s" s="19">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F8" t="s" s="5">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G8" t="s" s="17">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H8" t="s" s="7">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O8" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P8" s="8">
         <v>35</v>
       </c>
       <c r="Q8" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="W8" s="2"/>
     </row>
@@ -3379,67 +3449,67 @@
         <v>35</v>
       </c>
       <c r="B9" t="s" s="18">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F9" t="s" s="5">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G9" t="s" s="17">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H9" t="s" s="7">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P9" s="8">
         <v>34</v>
       </c>
       <c r="Q9" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="W9" s="2"/>
     </row>
@@ -3448,67 +3518,67 @@
         <v>36</v>
       </c>
       <c r="B10" t="s" s="20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F10" t="s" s="5">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G10" t="s" s="17">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H10" t="s" s="7">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P10" s="8">
         <v>33</v>
       </c>
       <c r="Q10" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="W10" s="2"/>
     </row>
@@ -3517,67 +3587,67 @@
         <v>36</v>
       </c>
       <c r="B11" t="s" s="20">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F11" t="s" s="5">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G11" t="s" s="17">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H11" t="s" s="7">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="P11" s="8">
         <v>32</v>
       </c>
       <c r="Q11" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="W11" s="2"/>
     </row>
@@ -3586,67 +3656,67 @@
         <v>37</v>
       </c>
       <c r="B12" t="s" s="20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E12" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F12" t="s" s="5">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G12" t="s" s="17">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H12" t="s" s="7">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P12" s="8">
         <v>31</v>
       </c>
       <c r="Q12" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="W12" s="2"/>
     </row>
@@ -3655,67 +3725,67 @@
         <v>38</v>
       </c>
       <c r="B13" t="s" s="6">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s" s="7">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E13" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F13" t="s" s="5">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G13" t="s" s="17">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H13" t="s" s="7">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="P13" s="8">
         <v>30</v>
       </c>
       <c r="Q13" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="W13" s="2"/>
     </row>
@@ -3724,67 +3794,67 @@
         <v>38</v>
       </c>
       <c r="B14" t="s" s="9">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E14" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F14" t="s" s="5">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G14" t="s" s="17">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H14" t="s" s="7">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P14" s="8">
         <v>29</v>
       </c>
       <c r="Q14" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="W14" s="2"/>
     </row>
@@ -3793,67 +3863,67 @@
         <v>38</v>
       </c>
       <c r="B15" t="s" s="18">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D15" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E15" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F15" t="s" s="5">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G15" t="s" s="17">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H15" t="s" s="7">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P15" s="8">
         <v>28</v>
       </c>
       <c r="Q15" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="W15" s="2"/>
     </row>
@@ -3862,67 +3932,67 @@
         <v>39</v>
       </c>
       <c r="B16" t="s" s="6">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s" s="7">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D16" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E16" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F16" t="s" s="5">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G16" t="s" s="17">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H16" t="s" s="7">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="P16" s="8">
         <v>27</v>
       </c>
       <c r="Q16" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="W16" s="2"/>
     </row>
@@ -3931,67 +4001,67 @@
         <v>40</v>
       </c>
       <c r="B17" t="s" s="20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D17" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E17" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F17" t="s" s="5">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G17" t="s" s="17">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H17" t="s" s="7">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="P17" s="8">
         <v>26</v>
       </c>
       <c r="Q17" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="W17" s="2"/>
     </row>
@@ -4000,67 +4070,67 @@
         <v>41</v>
       </c>
       <c r="B18" t="s" s="6">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s" s="7">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D18" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E18" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F18" t="s" s="5">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G18" t="s" s="17">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H18" t="s" s="7">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="P18" s="8">
         <v>25</v>
       </c>
       <c r="Q18" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="W18" s="2"/>
     </row>
@@ -4069,67 +4139,67 @@
         <v>42</v>
       </c>
       <c r="B19" t="s" s="20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D19" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E19" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F19" t="s" s="5">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G19" t="s" s="17">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H19" t="s" s="7">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P19" s="8">
         <v>24</v>
       </c>
       <c r="Q19" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="W19" s="2"/>
     </row>
@@ -4138,67 +4208,67 @@
         <v>43</v>
       </c>
       <c r="B20" t="s" s="20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D20" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E20" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F20" t="s" s="5">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G20" t="s" s="17">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H20" t="s" s="7">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="P20" s="8">
         <v>23</v>
       </c>
       <c r="Q20" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="W20" s="2"/>
     </row>
@@ -4207,67 +4277,67 @@
         <v>44</v>
       </c>
       <c r="B21" t="s" s="6">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s" s="7">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D21" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E21" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F21" t="s" s="5">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G21" t="s" s="17">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H21" t="s" s="7">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="P21" s="8">
         <v>22</v>
       </c>
       <c r="Q21" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="W21" s="2"/>
     </row>
@@ -4276,67 +4346,67 @@
         <v>45</v>
       </c>
       <c r="B22" t="s" s="20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D22" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E22" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F22" t="s" s="5">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G22" t="s" s="17">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H22" t="s" s="7">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="P22" s="8">
         <v>21</v>
       </c>
       <c r="Q22" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="W22" s="2"/>
     </row>
@@ -4345,67 +4415,67 @@
         <v>46</v>
       </c>
       <c r="B23" t="s" s="6">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C23" t="s" s="7">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D23" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E23" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F23" t="s" s="5">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G23" t="s" s="17">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H23" t="s" s="7">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="P23" s="8">
         <v>20</v>
       </c>
       <c r="Q23" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="W23" s="2"/>
     </row>
@@ -4414,67 +4484,67 @@
         <v>47</v>
       </c>
       <c r="B24" t="s" s="20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D24" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E24" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F24" t="s" s="5">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G24" t="s" s="17">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H24" t="s" s="7">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="P24" s="8">
         <v>19</v>
       </c>
       <c r="Q24" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="W24" s="2"/>
     </row>
@@ -4483,67 +4553,67 @@
         <v>48</v>
       </c>
       <c r="B25" t="s" s="20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D25" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E25" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F25" t="s" s="5">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G25" t="s" s="17">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H25" t="s" s="7">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="P25" s="8">
         <v>18</v>
       </c>
       <c r="Q25" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="W25" s="2"/>
     </row>
@@ -4552,67 +4622,67 @@
         <v>49</v>
       </c>
       <c r="B26" t="s" s="6">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C26" t="s" s="7">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D26" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E26" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F26" t="s" s="5">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G26" t="s" s="17">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H26" t="s" s="7">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="P26" s="8">
         <v>17</v>
       </c>
       <c r="Q26" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="W26" s="2"/>
     </row>
@@ -4621,67 +4691,67 @@
         <v>50</v>
       </c>
       <c r="B27" t="s" s="20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D27" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E27" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F27" t="s" s="5">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G27" t="s" s="17">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H27" t="s" s="7">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="P27" s="8">
         <v>16</v>
       </c>
       <c r="Q27" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="W27" s="2"/>
     </row>
@@ -4690,67 +4760,67 @@
         <v>51</v>
       </c>
       <c r="B28" t="s" s="6">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C28" t="s" s="7">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D28" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E28" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F28" t="s" s="5">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G28" t="s" s="17">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H28" t="s" s="7">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="P28" s="8">
         <v>15</v>
       </c>
       <c r="Q28" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="W28" s="2"/>
     </row>
@@ -4759,67 +4829,67 @@
         <v>52</v>
       </c>
       <c r="B29" t="s" s="15">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D29" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E29" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F29" t="s" s="5">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G29" t="s" s="23">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H29" t="s" s="7">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="P29" s="8">
         <v>14</v>
       </c>
       <c r="Q29" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="W29" s="2"/>
     </row>
